--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,37 +43,40 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>shit</t>
@@ -82,18 +85,15 @@
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
@@ -103,15 +103,18 @@
     <t>risk</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
@@ -124,118 +127,118 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
   <si>
     <t>corona</t>
@@ -604,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,16 +739,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.815068493150685</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L5">
         <v>54</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>0.8916666666666667</v>
-      </c>
-      <c r="L5">
-        <v>107</v>
-      </c>
       <c r="M5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.856396866840731</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L8">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7241379310344828</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.851063829787234</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1015,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7222222222222222</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5932203389830508</v>
+        <v>0.5523255813953488</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.575</v>
+        <v>0.55</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.7875</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.544973544973545</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C13">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7830188679245284</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5251937984496124</v>
+        <v>0.5132275132275133</v>
       </c>
       <c r="C14">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="D14">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,16 +1289,16 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5033557046979866</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>0.7674418604651163</v>
@@ -1365,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4901960784313725</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4727272727272727</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.7307692307692307</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1457,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4533333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1507,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1533,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1557,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1565,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3392857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1583,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21">
         <v>0.7142857142857143</v>
@@ -1636,16 +1639,16 @@
         <v>61</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1657,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,16 +1689,16 @@
         <v>54</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.675</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1707,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1715,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.275</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1733,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>183</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1757,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1765,13 +1768,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2698412698412698</v>
+        <v>0.2375</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1783,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1807,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1815,13 +1818,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1689008042895442</v>
+        <v>0.1501340482573726</v>
       </c>
       <c r="C26">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1833,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.6411764705882353</v>
+        <v>0.62</v>
       </c>
       <c r="L26">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1857,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1865,37 +1868,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01896551724137931</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1138</v>
+        <v>275</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6276595744680851</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1907,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1915,37 +1918,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01774193548387097</v>
+        <v>0.01637931034482759</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>0.05</v>
+      </c>
+      <c r="F28">
+        <v>0.95</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1141</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E28">
-        <v>0.11</v>
-      </c>
-      <c r="F28">
-        <v>0.89</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>3045</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K28">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1957,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1965,63 +1968,87 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01076779026217228</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E29">
+        <v>0.12</v>
+      </c>
+      <c r="F29">
+        <v>0.88</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3050</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L29">
+        <v>56</v>
+      </c>
+      <c r="M29">
+        <v>56</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.01452671040299906</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
         <v>0.23</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>0.77</v>
       </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2113</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29">
-        <v>0.6</v>
-      </c>
-      <c r="L29">
-        <v>30</v>
-      </c>
-      <c r="M29">
-        <v>30</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2103</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.5898305084745763</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L30">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="M30">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2033,47 +2060,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.5690376569037657</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="L31">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="M31">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.5428571428571428</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2085,47 +2112,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.4719101123595505</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L33">
+        <v>47</v>
+      </c>
+      <c r="M33">
+        <v>47</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>42</v>
-      </c>
-      <c r="M33">
-        <v>42</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.4523809523809524</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2137,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.4509803921568628</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2163,15 +2190,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.3698630136986301</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L36">
         <v>27</v>
@@ -2189,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.359375</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2215,21 +2242,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.3389830508474576</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2241,21 +2268,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.3333333333333333</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2267,15 +2294,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.04567307692307692</v>
+        <v>0.296875</v>
       </c>
       <c r="L40">
         <v>19</v>
@@ -2293,33 +2320,33 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>397</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K41">
-        <v>0.00847723704866562</v>
+        <v>0.01349231251961092</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N41">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="O41">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3158</v>
+        <v>3144</v>
       </c>
     </row>
   </sheetData>
